--- a/Pricing Spreadsheet.xlsx
+++ b/Pricing Spreadsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Legend</t>
   </si>
@@ -150,13 +150,25 @@
   </si>
   <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>Used Shocks</t>
+  </si>
+  <si>
+    <t>Nevermind</t>
+  </si>
+  <si>
+    <t>Remaining 3D Material</t>
+  </si>
+  <si>
+    <t>Chasis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +198,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -219,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +266,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9DFF98-61F9-42C5-A6E7-FE8B1A6EB47D}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,25 +617,35 @@
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <f>SUM(R11:R17)</f>
         <v>6.92</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="15">
         <f>PRODUCT(B2:D2)</f>
         <v>27.68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <f>SUM(1-E4)</f>
+        <v>-3</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>1</v>
@@ -627,6 +666,13 @@
         <f t="shared" ref="E3" si="0">PRODUCT(B3:D3)</f>
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <f>H2-E8</f>
+        <v>-28</v>
+      </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
@@ -643,8 +689,8 @@
         <v>4</v>
       </c>
       <c r="E4" s="13">
-        <f>-PRODUCT(B4:D4)</f>
-        <v>-4</v>
+        <f>PRODUCT(B4:D4)</f>
+        <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>25</v>
@@ -661,7 +707,9 @@
         <f t="shared" ref="E5:E14" si="1">PRODUCT(B5:D5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -687,14 +735,16 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>25</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
         <v>4</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -711,8 +761,8 @@
         <v>1</v>
       </c>
       <c r="E8" s="13">
-        <f>-PRODUCT(B8:D8)</f>
-        <v>-25</v>
+        <f>PRODUCT(B8:D8)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -720,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM(R26:R28)</f>
+        <f>SUM(R27:R29)</f>
         <v>5</v>
       </c>
       <c r="C9" s="7"/>
@@ -774,15 +824,22 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -821,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" ref="R12:R37" si="2">PRODUCT(O12:Q12)</f>
+        <f t="shared" ref="R12:R38" si="2">PRODUCT(O12:Q12)</f>
         <v>0.8</v>
       </c>
     </row>
@@ -1017,99 +1074,96 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L24" s="10"/>
-      <c r="N24" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L25" s="10"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L26" s="10"/>
-      <c r="M26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="7">
-        <v>4</v>
-      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7">
-        <v>1</v>
-      </c>
-      <c r="R26" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L27" s="10"/>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
       <c r="N27" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="O27" s="7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L28" s="10"/>
       <c r="N28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.5</v>
+      </c>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="7">
+        <v>2</v>
+      </c>
       <c r="R28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L29" s="10"/>
-      <c r="N29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L30" s="10"/>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L31" s="10"/>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -1142,7 +1196,7 @@
       </c>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L34" s="9"/>
+      <c r="L34" s="10"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -1191,7 +1245,10 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="R38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L39" s="9"/>
@@ -1210,6 +1267,7 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L41" s="9"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -1301,10 +1359,11 @@
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N55" s="8"/>
@@ -1444,6 +1503,12 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
